--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="112">
   <si>
     <t>Theme</t>
   </si>
@@ -562,9 +562,6 @@
     <t>varchar(50)</t>
   </si>
   <si>
-    <t>dateTime</t>
-  </si>
-  <si>
     <t>text</t>
   </si>
   <si>
@@ -577,9 +574,6 @@
     <t>convert this to int!!</t>
   </si>
   <si>
-    <t>interger</t>
-  </si>
-  <si>
     <t>seperator: &lt;provider&gt;|&lt;user_id&gt; convert to int!!</t>
   </si>
   <si>
@@ -590,9 +584,6 @@
   </si>
   <si>
     <t xml:space="preserve">seperator: &lt;year&gt;|T|&lt;time&gt;|Z </t>
-  </si>
-  <si>
-    <t>text - dateTime</t>
   </si>
   <si>
     <t>connection_provider</t>
@@ -711,6 +702,12 @@
   </si>
   <si>
     <t>106982928288430904158</t>
+  </si>
+  <si>
+    <t>dateTime(text-temp)</t>
+  </si>
+  <si>
+    <t>interger(text-temp)</t>
   </si>
 </sst>
 </file>
@@ -2136,7 +2133,7 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2157,10 +2154,10 @@
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="54" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B3" s="56" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2180,7 +2177,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2188,7 +2185,7 @@
         <v>66</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>70</v>
@@ -2202,10 +2199,10 @@
         <v>54</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" s="57" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>80</v>
@@ -2220,16 +2217,16 @@
         <v>55</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C7" s="58" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F7" t="str">
         <f t="shared" si="0"/>
@@ -2241,13 +2238,13 @@
         <v>56</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" s="60" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" t="str">
         <f>CONCATENATE("INSERT INTO users (",B8,") VALUES ('",C8,"');")</f>
@@ -2259,13 +2256,13 @@
         <v>57</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C9" s="31" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" t="str">
         <f t="shared" ref="F9:F22" si="1">CONCATENATE("INSERT INTO users (",B9,") VALUES ('",C9,"');")</f>
@@ -2277,13 +2274,13 @@
         <v>58</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C10" s="57" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F10" t="str">
         <f t="shared" si="1"/>
@@ -2295,13 +2292,13 @@
         <v>59</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F11" t="str">
         <f t="shared" si="1"/>
@@ -2335,13 +2332,13 @@
         <v>45</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C14" s="61" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D14" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F14" t="str">
         <f t="shared" si="1"/>
@@ -2353,13 +2350,13 @@
         <v>46</v>
       </c>
       <c r="B15" s="38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C15" s="31" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F15" t="str">
         <f t="shared" si="1"/>
@@ -2371,13 +2368,13 @@
         <v>47</v>
       </c>
       <c r="B16" s="39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C16" s="61" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F16" t="str">
         <f t="shared" si="1"/>
@@ -2392,13 +2389,13 @@
         <v>67</v>
       </c>
       <c r="C17" s="62" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>86</v>
+        <v>111</v>
       </c>
       <c r="E17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F17" t="str">
         <f t="shared" si="1"/>
@@ -2437,10 +2434,10 @@
         <v>69</v>
       </c>
       <c r="C20" s="61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F20" t="str">
         <f t="shared" si="1"/>
@@ -2455,10 +2452,10 @@
         <v>72</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D21" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F21" t="str">
         <f t="shared" si="1"/>
@@ -2473,13 +2470,13 @@
         <v>71</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D22" s="28" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="E22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F22" t="str">
         <f t="shared" si="1"/>
@@ -2498,7 +2495,7 @@
       </c>
       <c r="D23" s="25"/>
       <c r="E23" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="953" uniqueCount="864">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="867">
   <si>
     <t>Theme</t>
   </si>
@@ -2923,9 +2923,6 @@
     <t>Type</t>
   </si>
   <si>
-    <t>[A,B,C,D,E,F,G]</t>
-  </si>
-  <si>
     <t>B1</t>
   </si>
   <si>
@@ -2953,22 +2950,34 @@
     <t>F1</t>
   </si>
   <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
     <t>G1</t>
   </si>
   <si>
-    <t>tbd</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>1,2,3,…</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>'MV'</t>
+  </si>
+  <si>
+    <t>A,B,C,D,E,F,G</t>
+  </si>
+  <si>
+    <t>interger array[5]</t>
+  </si>
+  <si>
+    <t>interger</t>
+  </si>
+  <si>
+    <t>factor eg: 1-100</t>
+  </si>
+  <si>
+    <t>no time so calling this test</t>
   </si>
 </sst>
 </file>
@@ -3863,7 +3872,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4117,6 +4126,45 @@
     <xf numFmtId="10" fontId="21" fillId="4" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4168,48 +4216,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="19" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4962,18 +4974,18 @@
     </row>
     <row r="3" spans="1:13" ht="15.75" thickBot="1"/>
     <row r="4" spans="1:13" ht="15.75" thickBot="1">
-      <c r="C4" s="103" t="s">
+      <c r="C4" s="120" t="s">
         <v>131</v>
       </c>
-      <c r="D4" s="104"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="104"/>
-      <c r="L4" s="105"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="121"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="122"/>
     </row>
     <row r="5" spans="1:13">
       <c r="C5" s="66"/>
@@ -4990,14 +5002,14 @@
     <row r="6" spans="1:13">
       <c r="C6" s="66"/>
       <c r="D6" s="67"/>
-      <c r="E6" s="106" t="s">
+      <c r="E6" s="123" t="s">
         <v>132</v>
       </c>
-      <c r="F6" s="107"/>
-      <c r="G6" s="107"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="108"/>
+      <c r="F6" s="124"/>
+      <c r="G6" s="124"/>
+      <c r="H6" s="124"/>
+      <c r="I6" s="124"/>
+      <c r="J6" s="125"/>
       <c r="K6" s="67"/>
       <c r="L6" s="68"/>
       <c r="M6" t="s">
@@ -5007,96 +5019,96 @@
     <row r="7" spans="1:13">
       <c r="C7" s="66"/>
       <c r="D7" s="67"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="110"/>
-      <c r="G7" s="110"/>
-      <c r="H7" s="110"/>
-      <c r="I7" s="110"/>
-      <c r="J7" s="111"/>
+      <c r="E7" s="126"/>
+      <c r="F7" s="127"/>
+      <c r="G7" s="127"/>
+      <c r="H7" s="127"/>
+      <c r="I7" s="127"/>
+      <c r="J7" s="128"/>
       <c r="K7" s="67"/>
       <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:13">
       <c r="C8" s="66"/>
       <c r="D8" s="67"/>
-      <c r="E8" s="109"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="110"/>
-      <c r="H8" s="110"/>
-      <c r="I8" s="110"/>
-      <c r="J8" s="111"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="127"/>
+      <c r="H8" s="127"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="128"/>
       <c r="K8" s="67"/>
       <c r="L8" s="68"/>
     </row>
     <row r="9" spans="1:13">
       <c r="C9" s="66"/>
       <c r="D9" s="67"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="111"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="127"/>
+      <c r="G9" s="127"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="128"/>
       <c r="K9" s="67"/>
       <c r="L9" s="68"/>
     </row>
     <row r="10" spans="1:13">
       <c r="C10" s="66"/>
       <c r="D10" s="67"/>
-      <c r="E10" s="109"/>
-      <c r="F10" s="110"/>
-      <c r="G10" s="110"/>
-      <c r="H10" s="110"/>
-      <c r="I10" s="110"/>
-      <c r="J10" s="111"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="127"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="127"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="128"/>
       <c r="K10" s="67"/>
       <c r="L10" s="68"/>
     </row>
     <row r="11" spans="1:13">
       <c r="C11" s="66"/>
       <c r="D11" s="67"/>
-      <c r="E11" s="109"/>
-      <c r="F11" s="110"/>
-      <c r="G11" s="110"/>
-      <c r="H11" s="110"/>
-      <c r="I11" s="110"/>
-      <c r="J11" s="111"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
       <c r="K11" s="67"/>
       <c r="L11" s="68"/>
     </row>
     <row r="12" spans="1:13">
       <c r="C12" s="66"/>
       <c r="D12" s="67"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="110"/>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="J12" s="111"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="127"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="128"/>
       <c r="K12" s="67"/>
       <c r="L12" s="68"/>
     </row>
     <row r="13" spans="1:13">
       <c r="C13" s="66"/>
       <c r="D13" s="67"/>
-      <c r="E13" s="109"/>
-      <c r="F13" s="110"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="110"/>
-      <c r="I13" s="110"/>
-      <c r="J13" s="111"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="127"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="127"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="128"/>
       <c r="K13" s="67"/>
       <c r="L13" s="68"/>
     </row>
     <row r="14" spans="1:13">
       <c r="C14" s="66"/>
       <c r="D14" s="67"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="113"/>
-      <c r="H14" s="113"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="114"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="131"/>
       <c r="K14" s="67"/>
       <c r="L14" s="68"/>
     </row>
@@ -5137,16 +5149,16 @@
       <c r="L17" s="75"/>
     </row>
     <row r="18" spans="3:13">
-      <c r="C18" s="115"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="116"/>
-      <c r="H18" s="116"/>
-      <c r="I18" s="116"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="117"/>
+      <c r="C18" s="132"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="133"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="133"/>
+      <c r="K18" s="133"/>
+      <c r="L18" s="134"/>
       <c r="M18" t="s">
         <v>133</v>
       </c>
@@ -5166,13 +5178,13 @@
     <row r="20" spans="3:13">
       <c r="C20" s="66"/>
       <c r="D20" s="67"/>
-      <c r="E20" s="118" t="s">
+      <c r="E20" s="135" t="s">
         <v>134</v>
       </c>
-      <c r="F20" s="116"/>
-      <c r="G20" s="116"/>
-      <c r="H20" s="116"/>
-      <c r="I20" s="119"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="133"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="136"/>
       <c r="J20" s="10" t="s">
         <v>135</v>
       </c>
@@ -5192,16 +5204,16 @@
     </row>
     <row r="22" spans="3:13">
       <c r="C22" s="66"/>
-      <c r="D22" s="118" t="s">
+      <c r="D22" s="135" t="s">
         <v>136</v>
       </c>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="119"/>
+      <c r="E22" s="133"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="133"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="133"/>
+      <c r="K22" s="136"/>
       <c r="L22" s="68"/>
     </row>
     <row r="23" spans="3:13">
@@ -5840,10 +5852,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5854,8 +5866,8 @@
     <col min="4" max="4" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" thickBot="1"/>
-    <row r="2" spans="1:4" ht="15.75" thickBot="1">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1">
       <c r="A2" s="54" t="s">
         <v>96</v>
       </c>
@@ -5864,7 +5876,7 @@
       </c>
       <c r="C2" s="17"/>
     </row>
-    <row r="3" spans="1:4" ht="15.75" thickBot="1">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1">
       <c r="A3" s="54" t="s">
         <v>842</v>
       </c>
@@ -5878,271 +5890,256 @@
         <v>77</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="120" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" s="103" t="s">
+        <v>858</v>
+      </c>
+      <c r="B4" s="103" t="s">
+        <v>858</v>
+      </c>
+      <c r="C4" s="104" t="s">
+        <v>859</v>
+      </c>
+      <c r="D4" s="105" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="137" t="s">
+        <v>860</v>
+      </c>
+      <c r="B5" s="137" t="s">
+        <v>860</v>
+      </c>
+      <c r="C5" s="139" t="s">
+        <v>861</v>
+      </c>
+      <c r="D5" s="107" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="137" t="s">
         <v>847</v>
       </c>
-      <c r="B4" s="120" t="s">
+      <c r="B6" s="137" t="s">
         <v>847</v>
       </c>
-      <c r="C4" s="121" t="s">
-        <v>848</v>
-      </c>
-      <c r="D4" s="122" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="123" t="s">
+      <c r="C6" s="138" t="s">
+        <v>862</v>
+      </c>
+      <c r="D6" s="107" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="106" t="s">
         <v>843</v>
       </c>
-      <c r="B5" s="123" t="s">
+      <c r="B7" s="106" t="s">
         <v>843</v>
       </c>
-      <c r="C5" s="136" t="str">
-        <f>CONCATENATE("test",B5)</f>
+      <c r="C7" s="117" t="str">
+        <f>CONCATENATE("test",B7)</f>
         <v>testA1</v>
       </c>
-      <c r="D5" s="124" t="s">
+      <c r="D7" s="107" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="125" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" s="108" t="s">
         <v>844</v>
       </c>
-      <c r="B6" s="125" t="s">
+      <c r="B8" s="108" t="s">
         <v>844</v>
       </c>
-      <c r="C6" s="136" t="str">
-        <f t="shared" ref="C6:C16" si="0">CONCATENATE("test",B6)</f>
+      <c r="C8" s="117" t="str">
+        <f t="shared" ref="C8:C18" si="0">CONCATENATE("test",B8)</f>
         <v>testA2</v>
       </c>
-      <c r="D6" s="126" t="s">
+      <c r="D8" s="109" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="127" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" s="110" t="s">
         <v>845</v>
       </c>
-      <c r="B7" s="127" t="s">
+      <c r="B9" s="110" t="s">
         <v>845</v>
       </c>
-      <c r="C7" s="136" t="str">
+      <c r="C9" s="117" t="str">
         <f t="shared" si="0"/>
         <v>testA3</v>
       </c>
-      <c r="D7" s="128" t="s">
+      <c r="D9" s="111" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="127" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="110" t="s">
         <v>846</v>
       </c>
-      <c r="B8" s="127" t="s">
+      <c r="B10" s="110" t="s">
         <v>846</v>
       </c>
-      <c r="C8" s="136" t="str">
+      <c r="C10" s="117" t="str">
         <f t="shared" si="0"/>
         <v>testA4</v>
       </c>
-      <c r="D8" s="128" t="s">
+      <c r="D10" s="111" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="123" t="s">
-        <v>849</v>
-      </c>
-      <c r="B9" s="123" t="s">
-        <v>849</v>
-      </c>
-      <c r="C9" s="136" t="str">
+    <row r="11" spans="1:5">
+      <c r="A11" s="106" t="s">
+        <v>848</v>
+      </c>
+      <c r="B11" s="106" t="s">
+        <v>848</v>
+      </c>
+      <c r="C11" s="117" t="str">
         <f t="shared" si="0"/>
         <v>testB1</v>
       </c>
-      <c r="D9" s="128" t="s">
+      <c r="D11" s="111" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="127" t="s">
-        <v>850</v>
-      </c>
-      <c r="B10" s="127" t="s">
-        <v>850</v>
-      </c>
-      <c r="C10" s="136" t="str">
+    <row r="12" spans="1:5">
+      <c r="A12" s="110" t="s">
+        <v>849</v>
+      </c>
+      <c r="B12" s="110" t="s">
+        <v>849</v>
+      </c>
+      <c r="C12" s="117" t="str">
         <f t="shared" si="0"/>
         <v>testB2</v>
       </c>
-      <c r="D10" s="128" t="s">
+      <c r="D12" s="111" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="129" t="s">
-        <v>851</v>
-      </c>
-      <c r="B11" s="129" t="s">
-        <v>851</v>
-      </c>
-      <c r="C11" s="136" t="str">
+    <row r="13" spans="1:5">
+      <c r="A13" s="112" t="s">
+        <v>850</v>
+      </c>
+      <c r="B13" s="112" t="s">
+        <v>850</v>
+      </c>
+      <c r="C13" s="117" t="str">
         <f t="shared" si="0"/>
         <v>testB3</v>
       </c>
-      <c r="D11" s="128" t="s">
+      <c r="D13" s="111" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="127" t="s">
-        <v>852</v>
-      </c>
-      <c r="B12" s="127" t="s">
-        <v>852</v>
-      </c>
-      <c r="C12" s="136" t="str">
+    <row r="14" spans="1:5">
+      <c r="A14" s="110" t="s">
+        <v>851</v>
+      </c>
+      <c r="B14" s="110" t="s">
+        <v>851</v>
+      </c>
+      <c r="C14" s="117" t="str">
         <f t="shared" si="0"/>
         <v>testB4</v>
       </c>
-      <c r="D12" s="128" t="s">
+      <c r="D14" s="111" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="133" t="s">
-        <v>853</v>
-      </c>
-      <c r="B13" s="133" t="s">
-        <v>853</v>
-      </c>
-      <c r="C13" s="136" t="str">
+    <row r="15" spans="1:5">
+      <c r="A15" s="114" t="s">
+        <v>852</v>
+      </c>
+      <c r="B15" s="114" t="s">
+        <v>852</v>
+      </c>
+      <c r="C15" s="117" t="str">
         <f t="shared" si="0"/>
         <v>testC1</v>
       </c>
-      <c r="D13" s="128" t="s">
+      <c r="D15" s="111" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="127" t="s">
-        <v>854</v>
-      </c>
-      <c r="B14" s="127" t="s">
-        <v>854</v>
-      </c>
-      <c r="C14" s="136" t="str">
+    <row r="16" spans="1:5">
+      <c r="A16" s="110" t="s">
+        <v>853</v>
+      </c>
+      <c r="B16" s="110" t="s">
+        <v>853</v>
+      </c>
+      <c r="C16" s="117" t="str">
         <f t="shared" si="0"/>
         <v>testC2</v>
       </c>
-      <c r="D14" s="128" t="s">
+      <c r="D16" s="111" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="123" t="s">
-        <v>855</v>
-      </c>
-      <c r="B15" s="123" t="s">
-        <v>855</v>
-      </c>
-      <c r="C15" s="136" t="str">
+    <row r="17" spans="1:4">
+      <c r="A17" s="106" t="s">
+        <v>854</v>
+      </c>
+      <c r="B17" s="106" t="s">
+        <v>854</v>
+      </c>
+      <c r="C17" s="117" t="str">
         <f t="shared" si="0"/>
         <v>testD1</v>
       </c>
-      <c r="D15" s="128" t="s">
+      <c r="D17" s="111" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="127" t="s">
-        <v>856</v>
-      </c>
-      <c r="B16" s="127" t="s">
-        <v>856</v>
-      </c>
-      <c r="C16" s="136" t="str">
+    <row r="18" spans="1:4">
+      <c r="A18" s="110" t="s">
+        <v>855</v>
+      </c>
+      <c r="B18" s="110" t="s">
+        <v>855</v>
+      </c>
+      <c r="C18" s="117" t="str">
         <f t="shared" si="0"/>
         <v>testE1</v>
       </c>
-      <c r="D16" s="128" t="s">
+      <c r="D18" s="111" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="112" t="s">
+        <v>856</v>
+      </c>
+      <c r="B19" s="112" t="s">
+        <v>856</v>
+      </c>
+      <c r="C19" s="113" t="s">
+        <v>865</v>
+      </c>
+      <c r="D19" s="107" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15.75" thickBot="1">
+      <c r="A20" s="115" t="s">
+        <v>857</v>
+      </c>
+      <c r="B20" s="118" t="s">
+        <v>857</v>
+      </c>
+      <c r="C20" s="119" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="129" t="s">
-        <v>857</v>
-      </c>
-      <c r="B17" s="129" t="s">
-        <v>857</v>
-      </c>
-      <c r="C17" s="130" t="s">
-        <v>863</v>
-      </c>
-      <c r="D17" s="124"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="132" t="s">
-        <v>858</v>
-      </c>
-      <c r="B18" s="132" t="s">
-        <v>858</v>
-      </c>
-      <c r="C18" s="130" t="s">
-        <v>863</v>
-      </c>
-      <c r="D18" s="128"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="133" t="s">
-        <v>859</v>
-      </c>
-      <c r="B19" s="133" t="s">
-        <v>859</v>
-      </c>
-      <c r="C19" s="130" t="s">
-        <v>863</v>
-      </c>
-      <c r="D19" s="131"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="123" t="s">
-        <v>860</v>
-      </c>
-      <c r="B20" s="123" t="s">
-        <v>860</v>
-      </c>
-      <c r="C20" s="130" t="s">
-        <v>863</v>
-      </c>
-      <c r="D20" s="124"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="127" t="s">
-        <v>861</v>
-      </c>
-      <c r="B21" s="127" t="s">
-        <v>861</v>
-      </c>
-      <c r="C21" s="130" t="s">
-        <v>863</v>
-      </c>
-      <c r="D21" s="128"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" thickBot="1">
-      <c r="A22" s="134" t="s">
-        <v>862</v>
-      </c>
-      <c r="B22" s="137" t="s">
-        <v>862</v>
-      </c>
-      <c r="C22" s="138" t="s">
-        <v>863</v>
-      </c>
-      <c r="D22" s="135"/>
+      <c r="D20" s="116"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
